--- a/biology/Botanique/Homer_L._Shantz/Homer_L._Shantz.xlsx
+++ b/biology/Botanique/Homer_L._Shantz/Homer_L._Shantz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Homer LeRoy Shantz (1876-1958) était un botaniste américain qui présida l'université de l'Arizona.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né au Michigan, Homer LeRoy Shantz grandit à Colorado Springs, au Colorado. Il obtient son doctorat en botanique à l'université du Nebraska, en 1905[1]. Il voyage beaucoup, particulièrement dans l'Ouest américain et en Afrique, et réalise des photographies documentaires partout où il se rend. Il s'intéresse particulièrement à cette technique qu'il utilise à des fins de recherche, pour documenter les changements affectant la végétation[2]. Il est président de l'université de l'Arizona de 1928 à 1936, et se focalise sur l'Arizona et le désert de Sonora . Pendant cette période, il œuvre avec John E. Harrison Jr. à l'acquisition de terres afin de créer ce qui est aujourd'hui le parc national de Saguaro[3]. En 1936, il démissionne à la suite de désaccords avec le législateur et le conseil d'administration de l'université[4].
-À partir de 1936, il est chef de la Division de gestion de la faune sauvage du Service des forêts des États-Unis (US Forest Service), jusqu'à sa retraite en 1944. Il travaille par la suite avec la Section de géographie du Bureau de la recherche navale pour photographier à nouveau de nombreux sites qu'il avait documentés plus tôt dans sa carrière[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né au Michigan, Homer LeRoy Shantz grandit à Colorado Springs, au Colorado. Il obtient son doctorat en botanique à l'université du Nebraska, en 1905. Il voyage beaucoup, particulièrement dans l'Ouest américain et en Afrique, et réalise des photographies documentaires partout où il se rend. Il s'intéresse particulièrement à cette technique qu'il utilise à des fins de recherche, pour documenter les changements affectant la végétation. Il est président de l'université de l'Arizona de 1928 à 1936, et se focalise sur l'Arizona et le désert de Sonora . Pendant cette période, il œuvre avec John E. Harrison Jr. à l'acquisition de terres afin de créer ce qui est aujourd'hui le parc national de Saguaro. En 1936, il démissionne à la suite de désaccords avec le législateur et le conseil d'administration de l'université.
+À partir de 1936, il est chef de la Division de gestion de la faune sauvage du Service des forêts des États-Unis (US Forest Service), jusqu'à sa retraite en 1944. Il travaille par la suite avec la Section de géographie du Bureau de la recherche navale pour photographier à nouveau de nombreux sites qu'il avait documentés plus tôt dans sa carrière. 
 </t>
         </is>
       </c>
